--- a/PERI.xlsx
+++ b/PERI.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patel\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F90CEC-496D-4829-A068-E80E2EA868B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61828023-9588-4BAF-B8D2-33CAC2CC03E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5D35ED4D-E6D2-47BC-ADC2-60D74303C318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5D35ED4D-E6D2-47BC-ADC2-60D74303C318}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>PERI</t>
   </si>
@@ -60,6 +61,66 @@
   </si>
   <si>
     <t>EV</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Q120</t>
+  </si>
+  <si>
+    <t>Q220</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Q420</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>Q122</t>
+  </si>
+  <si>
+    <t>Q222</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q419</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Revunue y/y</t>
   </si>
 </sst>
 </file>
@@ -101,12 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C072E2-1B15-435B-BD9B-6E1798AF7557}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,4 +562,243 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E321869-D788-4CDA-8144-70E9E45228C6}">
+  <dimension ref="A1:AO29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>2019</v>
+      </c>
+      <c r="U2">
+        <f>+T2+1</f>
+        <v>2020</v>
+      </c>
+      <c r="V2">
+        <f>+U2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="W2">
+        <f>+V2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="X2">
+        <f>+W2+1</f>
+        <v>2023</v>
+      </c>
+      <c r="Y2">
+        <f>+X2+1</f>
+        <v>2024</v>
+      </c>
+      <c r="Z2">
+        <f>+Y2+1</f>
+        <v>2025</v>
+      </c>
+      <c r="AA2">
+        <f>+Z2+1</f>
+        <v>2026</v>
+      </c>
+      <c r="AB2">
+        <f>+AA2+1</f>
+        <v>2027</v>
+      </c>
+      <c r="AC2">
+        <f>+AB2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AD2">
+        <f>+AC2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AE2">
+        <f>+AD2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AF2">
+        <f>+AE2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AG2">
+        <f>+AF2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AH2">
+        <f>+AG2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="AI2">
+        <f>+AH2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="AJ2">
+        <f>+AI2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="AK2">
+        <f>+AJ2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="AL2">
+        <f>+AK2+1</f>
+        <v>2037</v>
+      </c>
+      <c r="AM2">
+        <f>+AL2+1</f>
+        <v>2038</v>
+      </c>
+      <c r="AN2">
+        <f>+AM2+1</f>
+        <v>2039</v>
+      </c>
+      <c r="AO2">
+        <f>+AN2+1</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="3">
+        <v>261450</v>
+      </c>
+      <c r="U3" s="3">
+        <v>328063</v>
+      </c>
+      <c r="V3" s="3">
+        <v>478498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="3">
+        <v>25520</v>
+      </c>
+      <c r="U4" s="3">
+        <v>22477</v>
+      </c>
+      <c r="V4">
+        <v>25197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="3">
+        <f>T3-T4</f>
+        <v>235930</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5:V5" si="0">U3-U4</f>
+        <v>305586</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="0"/>
+        <v>453301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="V6" s="3"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" s="5">
+        <f>U3/T3-1</f>
+        <v>0.25478294128896528</v>
+      </c>
+      <c r="V28" s="5">
+        <f>V3/U3-1</f>
+        <v>0.45855521652853271</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" ref="T29:U29" si="1">T5/T3</f>
+        <v>0.90239051443870721</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" si="1"/>
+        <v>0.93148572073046942</v>
+      </c>
+      <c r="V29" s="5">
+        <f>V5/V3</f>
+        <v>0.94734147269163094</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>